--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/15/seed3/result_data_RandomForest.xlsx
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.36890000000002</v>
+        <v>-22.36520000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.97709999999999</v>
+        <v>-21.9879</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5467</v>
+        <v>-21.5469</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.28800000000001</v>
+        <v>-22.29790000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.56189999999999</v>
+        <v>-19.60429999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.50720000000001</v>
+        <v>-22.36280000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.56589999999998</v>
+        <v>-21.54799999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.80619999999999</v>
+        <v>-20.80469999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.34629999999997</v>
+        <v>-20.47659999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.7786</v>
+        <v>-21.8202</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.01970000000001</v>
+        <v>-21.9856</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
